--- a/Framework/menu.xlsx
+++ b/Framework/menu.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19140" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,25 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mss/jsp/location/nation.jsp</t>
-  </si>
-  <si>
-    <t>国家信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mss/jsp/location/province.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mss/jsp/location/city.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省级信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市级信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +99,14 @@
   </si>
   <si>
     <t>客户端分组管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mss/html/location-manager.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域信息编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +456,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,46 +546,20 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -610,44 +570,44 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
